--- a/test2.xlsx
+++ b/test2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12348"/>
   </bookViews>
   <sheets>
     <sheet name="test2" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>青铜1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +81,10 @@
   </si>
   <si>
     <t>protect?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,16 +453,16 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -478,7 +482,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -498,7 +502,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -515,7 +519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -532,7 +536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -552,7 +556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -569,7 +573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -586,7 +590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -606,7 +610,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -622,8 +626,11 @@
       <c r="E9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
